--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3F911-B07E-486A-923E-F14216C3DE30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA7A146-C746-45C0-B377-EE2BA207850E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -668,10 +668,28 @@
     <t>NW70866</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>CASETA DE XOCHITEPEC MOR</t>
+  </si>
+  <si>
+    <t>3957b</t>
+  </si>
+  <si>
+    <t>555EZ1</t>
+  </si>
+  <si>
+    <t>KM 142 DE LA AUT DEL SOL</t>
+  </si>
+  <si>
+    <t>74 CAMINERO</t>
+  </si>
+  <si>
+    <t>7104a</t>
+  </si>
+  <si>
+    <t>HBU412C</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -815,13 +833,13 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,10 +1136,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2315,7 +2333,7 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="9">
         <v>43537</v>
       </c>
     </row>
@@ -2347,7 +2365,7 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -2601,7 +2619,7 @@
       <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J46" s="10"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -2631,27 +2649,37 @@
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B48" s="2">
         <v>43578</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D48" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="10"/>
+      <c r="F48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1982</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -2681,7 +2709,7 @@
       <c r="I49" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J49" s="10"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -2711,7 +2739,7 @@
       <c r="I50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J50" s="10"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -2741,7 +2769,7 @@
       <c r="I51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J51" s="10"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -2771,14 +2799,66 @@
       <c r="I52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J52" s="10"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43587</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="3">
+        <v>2010</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43591</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J37:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA7A146-C746-45C0-B377-EE2BA207850E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7670DFB-9D6E-4A67-8702-75F3C55EB7F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="214">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -662,9 +662,6 @@
     <t>KM 26 CRUCERO DE ALPUYECA</t>
   </si>
   <si>
-    <t xml:space="preserve">DODGE GRUA </t>
-  </si>
-  <si>
     <t>NW70866</t>
   </si>
   <si>
@@ -689,7 +686,40 @@
     <t>HBU412C</t>
   </si>
   <si>
-    <t>b</t>
+    <t>3991b</t>
+  </si>
+  <si>
+    <t>FREIGTHLINER TRACTO</t>
+  </si>
+  <si>
+    <t>HE8039B</t>
+  </si>
+  <si>
+    <t>3995b</t>
+  </si>
+  <si>
+    <t>3996b</t>
+  </si>
+  <si>
+    <t>PTE DE IXTLA KM 118 DE AUT DEL SOL</t>
+  </si>
+  <si>
+    <t>PLATAFORMA S3</t>
+  </si>
+  <si>
+    <t>S/P</t>
+  </si>
+  <si>
+    <t>DODGE GRUA A</t>
+  </si>
+  <si>
+    <t>KX74273</t>
+  </si>
+  <si>
+    <t>GRIS</t>
+  </si>
+  <si>
+    <t>DODGE GRUA C2</t>
   </si>
 </sst>
 </file>
@@ -810,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -832,9 +862,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,10 +1163,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2333,7 +2360,7 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <v>43537</v>
       </c>
     </row>
@@ -2365,7 +2392,7 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="10"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -2619,7 +2646,9 @@
       <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J46" s="8"/>
+      <c r="J46" s="6">
+        <v>43593</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -2638,22 +2667,24 @@
         <v>18</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G47" s="3">
         <v>1997</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="8"/>
+      <c r="J47" s="6">
+        <v>43593</v>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B48" s="2">
         <v>43578</v>
@@ -2662,7 +2693,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
@@ -2674,12 +2705,14 @@
         <v>1982</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J48" s="8"/>
+      <c r="J48" s="6">
+        <v>43593</v>
+      </c>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -2709,7 +2742,9 @@
       <c r="I49" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J49" s="8"/>
+      <c r="J49" s="6">
+        <v>43593</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -2739,7 +2774,9 @@
       <c r="I50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J50" s="8"/>
+      <c r="J50" s="6">
+        <v>43593</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -2769,7 +2806,9 @@
       <c r="I51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J51" s="8"/>
+      <c r="J51" s="6">
+        <v>43593</v>
+      </c>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -2799,11 +2838,13 @@
       <c r="I52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J52" s="8"/>
+      <c r="J52" s="6">
+        <v>43593</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B53" s="2">
         <v>43587</v>
@@ -2812,10 +2853,10 @@
         <v>16</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>94</v>
@@ -2824,16 +2865,18 @@
         <v>2010</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J53" s="8"/>
+      <c r="J53" s="6">
+        <v>43593</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B54" s="2">
         <v>43591</v>
@@ -2847,11 +2890,85 @@
       <c r="E54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="8"/>
+      <c r="F54" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1985</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="6">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43593</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1973</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="6">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43593</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1998</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J56" s="6">
+        <v>43593</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7670DFB-9D6E-4A67-8702-75F3C55EB7F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1095FA72-80CD-4D1A-A795-81D1C803955E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="217">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -720,6 +720,15 @@
   </si>
   <si>
     <t>DODGE GRUA C2</t>
+  </si>
+  <si>
+    <t>4007b</t>
+  </si>
+  <si>
+    <t>MAREQSA PLATAFORMA S3</t>
+  </si>
+  <si>
+    <t>5GF469A</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1172,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2647,7 +2656,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2679,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2711,7 +2720,7 @@
         <v>157</v>
       </c>
       <c r="J48" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2743,7 +2752,7 @@
         <v>157</v>
       </c>
       <c r="J49" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2775,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2807,7 +2816,7 @@
         <v>43</v>
       </c>
       <c r="J51" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2839,7 +2848,7 @@
         <v>191</v>
       </c>
       <c r="J52" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2871,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2903,7 +2912,7 @@
         <v>8</v>
       </c>
       <c r="J54" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2935,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="J55" s="6">
-        <v>43593</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2967,7 +2976,39 @@
         <v>212</v>
       </c>
       <c r="J56" s="6">
-        <v>43593</v>
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="2">
+        <v>43596</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2002</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="6">
+        <v>43598</v>
       </c>
     </row>
   </sheetData>
@@ -2975,7 +3016,7 @@
     <mergeCell ref="J37:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1095FA72-80CD-4D1A-A795-81D1C803955E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7116B7-122D-4640-8468-0A86E721B253}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="23040" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="253">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -729,12 +729,123 @@
   </si>
   <si>
     <t>5GF469A</t>
+  </si>
+  <si>
+    <t>7153a</t>
+  </si>
+  <si>
+    <t>AMACUZAC KM 45 +000</t>
+  </si>
+  <si>
+    <t>7194a</t>
+  </si>
+  <si>
+    <t>KM 1180</t>
+  </si>
+  <si>
+    <t>7206a</t>
+  </si>
+  <si>
+    <t>7221a</t>
+  </si>
+  <si>
+    <t>7241a</t>
+  </si>
+  <si>
+    <t>KM 118</t>
+  </si>
+  <si>
+    <t>DINA TRACTO</t>
+  </si>
+  <si>
+    <t>FREIGHTLINER REDILLAS</t>
+  </si>
+  <si>
+    <t>PLATAFORMA</t>
+  </si>
+  <si>
+    <t>140AJ4</t>
+  </si>
+  <si>
+    <t>70AJ1L</t>
+  </si>
+  <si>
+    <t>059WG7</t>
+  </si>
+  <si>
+    <t>952XT4</t>
+  </si>
+  <si>
+    <t>559EE2</t>
+  </si>
+  <si>
+    <t>NARANJA</t>
+  </si>
+  <si>
+    <t>4038B</t>
+  </si>
+  <si>
+    <t>4053b</t>
+  </si>
+  <si>
+    <t>4065b</t>
+  </si>
+  <si>
+    <t>AUDI AZ</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL CAMION</t>
+  </si>
+  <si>
+    <t>CHEVROLET GRUA</t>
+  </si>
+  <si>
+    <t>PZT4919</t>
+  </si>
+  <si>
+    <t>LB81114</t>
+  </si>
+  <si>
+    <t>KW5380</t>
+  </si>
+  <si>
+    <t>4114b</t>
+  </si>
+  <si>
+    <t>KODIAK PLATAFORMA</t>
+  </si>
+  <si>
+    <t>NV5512A</t>
+  </si>
+  <si>
+    <t>4147B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPUYECA OXXO </t>
+  </si>
+  <si>
+    <t>KENWORTH TRACTO</t>
+  </si>
+  <si>
+    <t>959ER9</t>
+  </si>
+  <si>
+    <t>4149b</t>
+  </si>
+  <si>
+    <t>I85CSI</t>
+  </si>
+  <si>
+    <t>4155b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -849,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -872,11 +983,50 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,10 +1322,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,7 +2519,7 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="22">
         <v>43537</v>
       </c>
     </row>
@@ -2401,7 +2551,7 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -3010,6 +3160,354 @@
       <c r="J57" s="6">
         <v>43598</v>
       </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="9">
+        <v>43598</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" s="12">
+        <v>1992</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" s="9">
+        <v>43605</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" s="12">
+        <v>2001</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="9">
+        <v>43607</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" s="12">
+        <v>2003</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="9">
+        <v>43610</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="9">
+        <v>43612</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="12">
+        <v>2008</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" s="17">
+        <v>43608</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G63" s="12">
+        <v>2018</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="17">
+        <v>43611</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G64" s="12">
+        <v>2009</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" s="17">
+        <v>43613</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G65" s="12">
+        <v>1999</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" s="17">
+        <v>43628</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" s="12">
+        <v>1996</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="9">
+        <v>43636</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="19">
+        <v>2013</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="9">
+        <v>43637</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="12">
+        <v>2016</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="9">
+        <v>43640</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G69" s="12">
+        <v>1954</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7116B7-122D-4640-8468-0A86E721B253}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A640872-14BC-4012-9352-BF59D7E6DD32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="23040" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="280">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -740,9 +740,6 @@
     <t>7194a</t>
   </si>
   <si>
-    <t>KM 1180</t>
-  </si>
-  <si>
     <t>7206a</t>
   </si>
   <si>
@@ -752,9 +749,6 @@
     <t>7241a</t>
   </si>
   <si>
-    <t>KM 118</t>
-  </si>
-  <si>
     <t>DINA TRACTO</t>
   </si>
   <si>
@@ -782,18 +776,12 @@
     <t>NARANJA</t>
   </si>
   <si>
-    <t>4038B</t>
-  </si>
-  <si>
     <t>4053b</t>
   </si>
   <si>
     <t>4065b</t>
   </si>
   <si>
-    <t>AUDI AZ</t>
-  </si>
-  <si>
     <t>INTERNATIONAL CAMION</t>
   </si>
   <si>
@@ -818,12 +806,6 @@
     <t>NV5512A</t>
   </si>
   <si>
-    <t>4147B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALPUYECA OXXO </t>
-  </si>
-  <si>
     <t>KENWORTH TRACTO</t>
   </si>
   <si>
@@ -837,15 +819,111 @@
   </si>
   <si>
     <t>4155b</t>
+  </si>
+  <si>
+    <t>4031b</t>
+  </si>
+  <si>
+    <t>90AH4H</t>
+  </si>
+  <si>
+    <t>4038b</t>
+  </si>
+  <si>
+    <t>DETENIDO POR LA FISCALIA</t>
+  </si>
+  <si>
+    <t>AUDI A3</t>
+  </si>
+  <si>
+    <t>7258a</t>
+  </si>
+  <si>
+    <t>PTE CASETA DE COBRO KM 118</t>
+  </si>
+  <si>
+    <t>LC22819</t>
+  </si>
+  <si>
+    <t>PTE KM 118 AUT DEL SOL MEX -ACA</t>
+  </si>
+  <si>
+    <t>4139b</t>
+  </si>
+  <si>
+    <t>KM 118 AUT DEL SOL MEX-ACA</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL CAJA C2</t>
+  </si>
+  <si>
+    <t>LB42540</t>
+  </si>
+  <si>
+    <t>4147b</t>
+  </si>
+  <si>
+    <t>ALPUYECA OXXO DE LA PINTORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENWHORT TRACTOCAMION </t>
+  </si>
+  <si>
+    <t>HG1442A</t>
+  </si>
+  <si>
+    <t>7415a</t>
+  </si>
+  <si>
+    <t>4 VIENTOS</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL CHASIS</t>
+  </si>
+  <si>
+    <t>FA97704</t>
+  </si>
+  <si>
+    <t>4174b</t>
+  </si>
+  <si>
+    <t>LA55525</t>
+  </si>
+  <si>
+    <t>4177b</t>
+  </si>
+  <si>
+    <t>CASETA FRANCISCO VELAZCO KM 118</t>
+  </si>
+  <si>
+    <t>INTERNTATIONAL CELDILLAS C2</t>
+  </si>
+  <si>
+    <t>HD9633B</t>
+  </si>
+  <si>
+    <t>7440a</t>
+  </si>
+  <si>
+    <t>FREIGHTLINER REDILAS</t>
+  </si>
+  <si>
+    <t>271ER7</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>poncho</t>
+  </si>
+  <si>
+    <t>luis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -881,7 +959,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,8 +984,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -956,11 +1040,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -983,51 +1078,22 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,10 +1388,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2585,7 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="10">
         <v>43537</v>
       </c>
     </row>
@@ -2551,7 +2617,7 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -3162,352 +3228,596 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="2">
         <v>43598</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="C58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="11" t="s">
+      <c r="E58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1992</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43605</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2001</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43605</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2013</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="2">
+        <v>43607</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G58" s="12">
-        <v>1992</v>
-      </c>
-      <c r="H58" s="10" t="s">
+      <c r="G61" s="3">
+        <v>2003</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I58" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B59" s="9">
-        <v>43605</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G59" s="12">
+      <c r="I61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43608</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2018</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43610</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="3">
+        <v>2009</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="2">
+        <v>43611</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="3">
+        <v>2009</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="2">
+        <v>43612</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" s="3">
+        <v>2008</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="2">
+        <v>43613</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1999</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43616</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1969</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43628</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1996</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43634</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G69" s="3">
+        <v>2005</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43636</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2013</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43637</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="3">
+        <v>2016</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43640</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1954</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2007</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74" s="3">
         <v>2001</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B60" s="9">
-        <v>43607</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G60" s="12">
-        <v>2003</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I60" s="10" t="s">
+      <c r="H74" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43648</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1991</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43650</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2013</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B61" s="9">
-        <v>43610</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" s="9">
-        <v>43612</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G62" s="12">
-        <v>2008</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B63" s="17">
-        <v>43608</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G63" s="12">
-        <v>2018</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B64" s="17">
-        <v>43611</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G64" s="12">
-        <v>2009</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="I64" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B65" s="17">
-        <v>43613</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G65" s="12">
-        <v>1999</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="I65" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B66" s="17">
-        <v>43628</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G66" s="12">
-        <v>1996</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J66" s="16"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="9">
-        <v>43636</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G67" s="19">
-        <v>2013</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="9">
-        <v>43637</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" s="12">
-        <v>2016</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B69" s="9">
-        <v>43640</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G69" s="12">
-        <v>1954</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" s="13">
+        <v>43651</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B78" s="13">
+        <v>43652</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A640872-14BC-4012-9352-BF59D7E6DD32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3AC81B-CA37-432F-AB9D-8C8969285D6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,12 +73,36 @@
     ESTE REPORTE JUNTO CON EL 6732A SON EL MISMO VEHICULO. SOLO QUE AL MOMENTO DE VENIR A LIBERARLO EL 61 LE DIERON LIBERACIÓN DEL TRACTO Y DE LA JAULA</t>
       </text>
     </comment>
+    <comment ref="A77" authorId="0" shapeId="0" xr:uid="{DAAB371D-3E8A-4309-8A76-3DACECD7A579}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SE TRASPAPELO, Y AL PARECER NO SE PAGO</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="296">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -911,13 +935,61 @@
     <t>271ER7</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>poncho</t>
-  </si>
-  <si>
-    <t>luis</t>
+    <t>7446a</t>
+  </si>
+  <si>
+    <t>7447a</t>
+  </si>
+  <si>
+    <t>CARRE FEDERAL CUERNAVACA-TAXCO</t>
+  </si>
+  <si>
+    <t>CHEVROLET PLATAFORMA</t>
+  </si>
+  <si>
+    <t>LA58635</t>
+  </si>
+  <si>
+    <t>KODIAC PLATAFORMA</t>
+  </si>
+  <si>
+    <t>HF32140</t>
+  </si>
+  <si>
+    <t>7457a</t>
+  </si>
+  <si>
+    <t>7601a</t>
+  </si>
+  <si>
+    <t>7602a</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL  CAJA  C2</t>
+  </si>
+  <si>
+    <t>355ET6</t>
+  </si>
+  <si>
+    <t>REMOSA SEMIRREMOLQUE JAULA</t>
+  </si>
+  <si>
+    <t>649WS2</t>
+  </si>
+  <si>
+    <t>FORD CAMION REDILAS</t>
+  </si>
+  <si>
+    <t>LB33915</t>
+  </si>
+  <si>
+    <t>4179b</t>
+  </si>
+  <si>
+    <t>TOYOTA VAGONETA</t>
+  </si>
+  <si>
+    <t>PERMISO</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1031,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,8 +1062,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1040,22 +1118,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1090,10 +1157,9 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,10 +1454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3255,7 +3321,9 @@
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="8"/>
+      <c r="J58" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -3285,7 +3353,9 @@
       <c r="I59" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J59" s="8"/>
+      <c r="J59" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -3315,7 +3385,9 @@
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J60" s="8"/>
+      <c r="J60" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -3345,7 +3417,9 @@
       <c r="I61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="8"/>
+      <c r="J61" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -3375,7 +3449,9 @@
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="8"/>
+      <c r="J62" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -3405,7 +3481,9 @@
       <c r="I63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J63" s="8"/>
+      <c r="J63" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="64" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -3435,7 +3513,9 @@
       <c r="I64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J64" s="8"/>
+      <c r="J64" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="65" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -3465,7 +3545,9 @@
       <c r="I65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J65" s="8"/>
+      <c r="J65" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -3495,7 +3577,9 @@
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="8"/>
+      <c r="J66" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -3525,7 +3609,9 @@
       <c r="I67" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J67" s="8"/>
+      <c r="J67" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -3555,7 +3641,9 @@
       <c r="I68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J68" s="8"/>
+      <c r="J68" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -3585,7 +3673,9 @@
       <c r="I69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J69" s="8"/>
+      <c r="J69" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -3615,7 +3705,9 @@
       <c r="I70" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J70" s="8"/>
+      <c r="J70" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
@@ -3645,7 +3737,9 @@
       <c r="I71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J71" s="8"/>
+      <c r="J71" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -3675,7 +3769,9 @@
       <c r="I72" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J72" s="8"/>
+      <c r="J72" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -3705,7 +3801,9 @@
       <c r="I73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J73" s="8"/>
+      <c r="J73" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -3735,7 +3833,9 @@
       <c r="I74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J74" s="8"/>
+      <c r="J74" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="75" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
@@ -3765,7 +3865,9 @@
       <c r="I75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J75" s="8"/>
+      <c r="J75" s="6">
+        <v>43653</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -3795,29 +3897,195 @@
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J76" s="6">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43650</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2019</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="6">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B78" s="2">
         <v>43651</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G78" s="3">
+        <v>2008</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" s="6">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B78" s="13">
+      <c r="B79" s="2">
         <v>43652</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="E79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1996</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="6">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43654</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G80" s="3">
+        <v>2001</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43685</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1990</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="8"/>
+    </row>
+    <row r="82" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="2">
+        <v>43685</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G82" s="3">
+        <v>2016</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3AC81B-CA37-432F-AB9D-8C8969285D6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D8160-3925-4B8E-8AAF-704D1C972269}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="299">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -990,6 +990,15 @@
   </si>
   <si>
     <t>PERMISO</t>
+  </si>
+  <si>
+    <t>7623a</t>
+  </si>
+  <si>
+    <t>FERBUS PLATAFORMA S2</t>
+  </si>
+  <si>
+    <t>089UC9</t>
   </si>
 </sst>
 </file>
@@ -1151,14 +1160,14 @@
     <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,10 +1463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2651,7 +2660,7 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="11">
         <v>43537</v>
       </c>
     </row>
@@ -2683,7 +2692,7 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -3902,7 +3911,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="10" t="s">
         <v>293</v>
       </c>
       <c r="B77" s="2">
@@ -4086,6 +4095,36 @@
         <v>5</v>
       </c>
       <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43689</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1994</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D8160-3925-4B8E-8AAF-704D1C972269}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF142FDA-EB62-45D4-B9AA-B6DAA8020522}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1153,9 +1153,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1466,7 +1463,7 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,7 +2657,7 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="10">
         <v>43537</v>
       </c>
     </row>
@@ -2692,7 +2689,7 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="12"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -3437,7 +3434,7 @@
       <c r="B62" s="2">
         <v>43608</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>250</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3911,7 +3908,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>293</v>
       </c>
       <c r="B77" s="2">
@@ -4034,7 +4031,9 @@
       <c r="I80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J80" s="8"/>
+      <c r="J80" s="6">
+        <v>43710</v>
+      </c>
     </row>
     <row r="81" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -4064,7 +4063,9 @@
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J81" s="8"/>
+      <c r="J81" s="6">
+        <v>43710</v>
+      </c>
     </row>
     <row r="82" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
@@ -4094,9 +4095,11 @@
       <c r="I82" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J82" s="6">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>296</v>
       </c>
@@ -4124,14 +4127,16 @@
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="8"/>
+      <c r="J83" s="6">
+        <v>43710</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J37:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="32" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF142FDA-EB62-45D4-B9AA-B6DAA8020522}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE0E767-AC9F-4BB5-9CFA-59FD734F1B16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,8 +1462,8 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE0E767-AC9F-4BB5-9CFA-59FD734F1B16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F29D0F0-5825-4BFC-8547-5EA57F27FBC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="302">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -999,6 +999,15 @@
   </si>
   <si>
     <t>089UC9</t>
+  </si>
+  <si>
+    <t>4422b</t>
+  </si>
+  <si>
+    <t>HYUNDAI CAJA</t>
+  </si>
+  <si>
+    <t>65UC7N</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1164,6 +1173,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1460,10 +1472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4131,6 +4143,36 @@
         <v>43710</v>
       </c>
     </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43759</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1995</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J37:J38"/>

--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F29D0F0-5825-4BFC-8547-5EA57F27FBC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B2CDF2-BC9D-4E88-B176-1ECFD54ACFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -102,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="302">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -1169,13 +1171,13 @@
     <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,8 +1476,8 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2669,7 +2671,7 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="11">
         <v>43537</v>
       </c>
     </row>
@@ -2701,7 +2703,7 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -4171,7 +4173,7 @@
       <c r="I84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J84" s="12"/>
+      <c r="J84" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B2CDF2-BC9D-4E88-B176-1ECFD54ACFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA9150-67BE-4B26-A3ED-00A456D955EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="333">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -1010,6 +1010,99 @@
   </si>
   <si>
     <t>65UC7N</t>
+  </si>
+  <si>
+    <t>4429B</t>
+  </si>
+  <si>
+    <t>4549B</t>
+  </si>
+  <si>
+    <t>4720B</t>
+  </si>
+  <si>
+    <t>XOXO TRAMO LOS CUETES</t>
+  </si>
+  <si>
+    <t>ALPUYECA GASOLINERA DIRECCION SUR</t>
+  </si>
+  <si>
+    <t>NISSAN URBAN</t>
+  </si>
+  <si>
+    <t>18889P</t>
+  </si>
+  <si>
+    <t>DE LUCIO PLATAFORMA</t>
+  </si>
+  <si>
+    <t>179UK7</t>
+  </si>
+  <si>
+    <t>39ANZX</t>
+  </si>
+  <si>
+    <t>8099a</t>
+  </si>
+  <si>
+    <t>8110a</t>
+  </si>
+  <si>
+    <t>8201a</t>
+  </si>
+  <si>
+    <t>8202a</t>
+  </si>
+  <si>
+    <t>8304a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASETA DEL KM 118 AUT MEX-ACA </t>
+  </si>
+  <si>
+    <t>AMACUZAC, MORELOS. EL NORTEÑO</t>
+  </si>
+  <si>
+    <t>AMACUZAC KM. 47 LA GLORIETA</t>
+  </si>
+  <si>
+    <t>AMACUZAC KM.44 EL NORTEÑO</t>
+  </si>
+  <si>
+    <t>ALPUYECA KM.26 MATERIALES AVILA</t>
+  </si>
+  <si>
+    <t>EL MEXICANO TANQUE REMOLQUE</t>
+  </si>
+  <si>
+    <t>94UD8H</t>
+  </si>
+  <si>
+    <t>CEMUISA PLATAFORMA</t>
+  </si>
+  <si>
+    <t>23TX55</t>
+  </si>
+  <si>
+    <t>FREIGHTLINER CAJA SECA</t>
+  </si>
+  <si>
+    <t>NY4511B</t>
+  </si>
+  <si>
+    <t>LARSA GONDOLA</t>
+  </si>
+  <si>
+    <t>36UA3T</t>
+  </si>
+  <si>
+    <t>HD5310C</t>
+  </si>
+  <si>
+    <t>MERCEDES BENZ CHASIS</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1474,10 +1567,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,7 +1578,7 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" customWidth="1"/>
@@ -4175,12 +4268,252 @@
       </c>
       <c r="J84" s="10"/>
     </row>
+    <row r="85" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43767</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G85" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43809</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G86" s="3">
+        <v>2011</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43812</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G87" s="3">
+        <v>2016</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43826</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88" s="3">
+        <v>2020</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43826</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43827</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43845</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1992</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43903</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1988</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J92" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J37:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="32" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="28" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RELACION GAET/RELACION GAET.xlsx
+++ b/RELACION GAET/RELACION GAET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA9150-67BE-4B26-A3ED-00A456D955EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5DFD9C-3C45-424C-9F9C-4B3960115A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="335">
   <si>
     <t>INTERNATIONAL CELDILLAS</t>
   </si>
@@ -1012,15 +1012,6 @@
     <t>65UC7N</t>
   </si>
   <si>
-    <t>4429B</t>
-  </si>
-  <si>
-    <t>4549B</t>
-  </si>
-  <si>
-    <t>4720B</t>
-  </si>
-  <si>
     <t>XOXO TRAMO LOS CUETES</t>
   </si>
   <si>
@@ -1103,6 +1094,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>8729a</t>
+  </si>
+  <si>
+    <t>4429b</t>
+  </si>
+  <si>
+    <t>4549b</t>
+  </si>
+  <si>
+    <t>4720b</t>
+  </si>
+  <si>
+    <t>HFV784C</t>
   </si>
 </sst>
 </file>
@@ -1567,10 +1573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4266,11 +4272,11 @@
       <c r="I84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J84" s="10"/>
+      <c r="J84" s="6"/>
     </row>
     <row r="85" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="B85" s="2">
         <v>43767</v>
@@ -4279,28 +4285,28 @@
         <v>16</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G85" s="3">
         <v>2017</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J85" s="10"/>
+      <c r="J85" s="6"/>
     </row>
     <row r="86" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B86" s="2">
         <v>43809</v>
@@ -4309,28 +4315,28 @@
         <v>16</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G86" s="3">
         <v>2011</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J86" s="10"/>
+      <c r="J86" s="6"/>
     </row>
     <row r="87" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B87" s="2">
         <v>43812</v>
@@ -4339,28 +4345,28 @@
         <v>16</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G87" s="3">
         <v>2016</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J87" s="10"/>
+      <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B88" s="2">
         <v>43826</v>
@@ -4369,28 +4375,28 @@
         <v>16</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G88" s="3">
         <v>2020</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J88" s="10"/>
+      <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B89" s="2">
         <v>43826</v>
@@ -4399,28 +4405,28 @@
         <v>16</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G89" s="3">
         <v>2017</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="10"/>
+      <c r="J89" s="6"/>
     </row>
     <row r="90" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="B90" s="2">
         <v>43827</v>
@@ -4435,22 +4441,22 @@
         <v>18</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J90" s="10"/>
+      <c r="J90" s="6"/>
     </row>
     <row r="91" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B91" s="2">
         <v>43845</v>
@@ -4459,28 +4465,28 @@
         <v>16</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G91" s="3">
         <v>1992</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="10"/>
+      <c r="J91" s="6"/>
     </row>
     <row r="92" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="B92" s="2">
         <v>43903</v>
@@ -4489,7 +4495,7 @@
         <v>16</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>18</v>
@@ -4501,12 +4507,42 @@
         <v>1988</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J92" s="10"/>
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43985</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G93" s="3">
+        <v>2020</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
